--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/ALASKA_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/ALASKA_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -721,7 +721,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C25">
@@ -752,7 +752,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C27">
@@ -765,7 +765,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C28">
@@ -861,7 +861,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C35">
@@ -874,7 +874,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C36">
@@ -887,7 +887,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C37">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C53">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C56">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C58">
@@ -1439,7 +1439,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C76">
@@ -1486,41 +1486,6 @@
       </c>
       <c r="D79">
         <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/ALASKA_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/ALASKA_2019.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -644,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -675,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>León</t>
@@ -688,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -719,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -732,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -763,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -776,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
@@ -807,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Jalostotitlán</t>
@@ -820,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -833,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Pihuamo</t>
@@ -846,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -859,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>San Juan De Los Lagos</t>
@@ -872,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -885,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -898,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -911,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -924,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -937,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -968,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Carácuaro</t>
@@ -981,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Charo</t>
@@ -994,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -1007,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Indaparapeo</t>
@@ -1020,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Jungapeo</t>
@@ -1033,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1046,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1059,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -1072,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -1085,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1116,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -1129,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1160,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1191,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -1204,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Santo Domingo Tehuantepec</t>
@@ -1217,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Silacayoápam</t>
@@ -1230,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1261,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1292,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1323,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1354,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Hidalgotitlán</t>
@@ -1367,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -1380,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -1393,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1424,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1437,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Tlaltenango De Sánchez Román</t>
@@ -1450,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -1463,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Total</t>
